--- a/UnitTest/Testcase.xlsx
+++ b/UnitTest/Testcase.xlsx
@@ -27,174 +27,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
-  <si>
-    <t xml:space="preserve">id </t>
-  </si>
-  <si>
-    <t>Bản kiểm thử</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trường hợp kiểm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Các bước thực </t>
-  </si>
-  <si>
-    <t>Dữ liệu kiểm</t>
-  </si>
-  <si>
-    <t>Kết quả mong đợi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tc1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra đầu vào trường dữ liệu a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ô nhập a bỏ trống </t>
-  </si>
-  <si>
-    <t>1. Để trống ô nhập a</t>
-  </si>
-  <si>
-    <t>a="", b=1, c=2</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo:"Vui lòng nhập a để thực hiện phép tính"</t>
-  </si>
-  <si>
-    <t>2. Nhập b = 1</t>
-  </si>
-  <si>
-    <t>3. Nhập c = 2</t>
-  </si>
-  <si>
-    <t>Nhập dữ liệu không phải số vào ô nhập a</t>
-  </si>
-  <si>
-    <t>1. Nhập a không phải số</t>
-  </si>
-  <si>
-    <t>a="@#$%", b=1, c=2</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo:"Vui lòng nhập số cho  a để thực hiện phép tính"</t>
-  </si>
-  <si>
-    <t>Nhập dữ liệu là số vào ô nhập a</t>
-  </si>
-  <si>
-    <t>1. Nhập a = 1</t>
-  </si>
-  <si>
-    <t>a=1, b=-10, c=16</t>
-  </si>
-  <si>
-    <r>
-      <t>Hiển thị thông báo:"x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>²</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 10x + 16 = 0, với 2 nghiệm x₁=2 và x₂=8"</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Nhập b = -10</t>
-  </si>
-  <si>
-    <t>3. Nhập c = 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tc2 </t>
-  </si>
-  <si>
-    <t>Kiểm tra đầu vào trường dữ liệu b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ô nhập b bỏ trống </t>
-  </si>
-  <si>
-    <t>1. a=1</t>
-  </si>
-  <si>
-    <t>a=1, b="", c=2</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo:"Vui lòng nhập b để thực hiện phép tính"</t>
-  </si>
-  <si>
-    <t>2. Để trống ô nhập b</t>
-  </si>
-  <si>
-    <t>Nhập dữ liệu không phải số vào ô nhập b</t>
-  </si>
-  <si>
-    <t>1.a=1</t>
-  </si>
-  <si>
-    <t>a=1, b="@#$%", c=2</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo:"Vui lòng nhập số cho  b để thực hiện phép tính"</t>
-  </si>
-  <si>
-    <t>2. Nhập b không phải số</t>
-  </si>
-  <si>
-    <t>Nhập dữ liệu là số vào ô nhập b</t>
-  </si>
-  <si>
-    <t>tc3</t>
-  </si>
-  <si>
-    <t>Kiểm tra đầu vào trường dữ liệu c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ô nhập c bỏ trống </t>
-  </si>
-  <si>
-    <t>a=1, b=1, c=""</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo:"Vui lòng nhập c để thực hiện phép tính"</t>
-  </si>
-  <si>
-    <t>2. b=1</t>
-  </si>
-  <si>
-    <t>3. Để trống ô nhập c</t>
-  </si>
-  <si>
-    <t>Nhập dữ liệu không phải số vào ô nhập c</t>
-  </si>
-  <si>
-    <t>a=1, b=1, c="@#$%"</t>
-  </si>
-  <si>
-    <t>Hiển thị thông báo:"Vui lòng nhập số cho  c để thực hiện phép tính"</t>
-  </si>
-  <si>
-    <t>3. Nhập c không phải số</t>
-  </si>
-  <si>
-    <t>Nhập dữ liệu là số vào ô nhập c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Tên Module</t>
+  </si>
+  <si>
+    <t>Mô Tả Test Case</t>
+  </si>
+  <si>
+    <t>Đầu Vào</t>
+  </si>
+  <si>
+    <t>Kết Quả Mong Đợi</t>
+  </si>
+  <si>
+    <t>Kết Quả Thực Tế</t>
+  </si>
+  <si>
+    <t>Trạng Thái (Pass/Fail)</t>
+  </si>
+  <si>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>Kiểm tra module kiemTra_Rong(a, b, c)</t>
+  </si>
+  <si>
+    <t>Trả về true với dữ liệu bằng 1, 6, 7</t>
+  </si>
+  <si>
+    <t>a = 1, b = 6, c = 7</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Trả về false với dữ liệu bằng 1, '', 7</t>
+  </si>
+  <si>
+    <t>a = 1, b = '', c = 7</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Kiểm tra module kiemTra_KieuSo(a, b, c)</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Trả về false với dữ liệu bằng 1, 'a', 7</t>
+  </si>
+  <si>
+    <t>a = 1, b = 'a', c = 7</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Trả về chuỗi kết quả với dữ liệu bằng 1, -10, 16</t>
+  </si>
+  <si>
+    <t>x² - 10x + 16 = 0, với hai nghiệm phân biệt x₁ = 2, x₂ = 8</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Kiểm tra module giai_PhuongTrinh(a, b, c)</t>
+  </si>
+  <si>
+    <t>Trả về chuỗi kết quả với dữ liệu bằng 1, 3, a</t>
+  </si>
+  <si>
+    <t>a = 1, b = 3, c = a</t>
+  </si>
+  <si>
+    <t>Dữ liệu nhập vào phải là kiểu số</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Trả về chuỗi kết quả với dữ liệu bằng "", 3, 1</t>
+  </si>
+  <si>
+    <t>a = "", b = 3, c = 1</t>
+  </si>
+  <si>
+    <t>Dữ liệu nhập vào không được bỏ trống</t>
   </si>
 </sst>
 </file>
@@ -216,6 +147,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="163"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -359,12 +296,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -560,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -578,43 +509,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -738,175 +632,163 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1441,22 +1323,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="29.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="34.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="22.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="17.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="54.6666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.87962962962963" style="1"/>
+    <col min="2" max="2" width="35.8796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.8796296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1472,381 +1357,181 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="5" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="2" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12"/>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F28"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/UnitTest/Testcase.xlsx
+++ b/UnitTest/Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\HocKy_7\SEE512\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A0E919-D3C9-4293-8BAA-BD316E5CD0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA1188-16A5-401B-8DFF-1C46D8B993A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>TC7</t>
   </si>
   <si>
-    <t>x² - 10x + 16 = 0, với hai nghiệm phân biệt x₁ = 8, x₂ = 2</t>
+    <t>x² - 10x+ 16 = 0, với hai nghiệm phân biệt x₁ = 8.00, x₂ = 2.00</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -718,7 +718,7 @@
     <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
